--- a/JoeyTribbiani_281092.xlsx
+++ b/JoeyTribbiani_281092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t xml:space="preserve">Invoice # 281092 
 Invoice Date: Oct 01, 2020 
@@ -159,9 +159,45 @@
     <x:t xml:space="preserve">HP 4 GB for Desktop Mini PC </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Red Gear Dragonwar Emera ELE-G11 3200 DPI 
-Gaming Mouse (Dark Blue) 
+    <x:t xml:space="preserve">16 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">HP Laserjet Multifunction Printer B/W (2nd Tray 
+Optional) 
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6000.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">PORT Torino - Notebook sleeve - 14" - black </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1900.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sub Total </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">35900.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GST 8% </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2872.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Total </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">38772.00 </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -207,10 +243,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -534,12 +567,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:11">
       <x:c r="B1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:11">
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -556,7 +589,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:11">
       <x:c r="B3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -573,7 +606,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:11">
       <x:c r="B4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -590,7 +623,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:11">
       <x:c r="B5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -607,7 +640,7 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:11">
       <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -624,7 +657,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6">
+    <x:row r="7" spans="1:11">
       <x:c r="B7" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -641,7 +674,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
+    <x:row r="8" spans="1:11">
       <x:c r="B8" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -658,7 +691,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6">
+    <x:row r="9" spans="1:11">
       <x:c r="B9" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -675,7 +708,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6">
+    <x:row r="10" spans="1:11">
       <x:c r="B10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -692,7 +725,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
+    <x:row r="11" spans="1:11">
       <x:c r="B11" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -709,7 +742,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
+    <x:row r="12" spans="1:11">
       <x:c r="B12" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -726,7 +759,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
+    <x:row r="13" spans="1:11">
       <x:c r="B13" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -743,7 +776,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6">
+    <x:row r="14" spans="1:11">
       <x:c r="B14" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -760,7 +793,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6">
+    <x:row r="15" spans="1:11">
       <x:c r="B15" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -777,7 +810,7 @@
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
+    <x:row r="16" spans="1:11">
       <x:c r="B16" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
@@ -794,514 +827,62 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="B17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="B19" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="B20" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="B21" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="B22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="B23" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
+    <x:row r="17" spans="1:11">
+      <x:c r="G17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="B24" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6">
-      <x:c r="B25" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:6">
-      <x:c r="B26" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:6">
-      <x:c r="B27" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:6">
-      <x:c r="B28" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="B29" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:6">
-      <x:c r="B30" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:6">
-      <x:c r="B31" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="B32" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="B33" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="B34" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:6">
-      <x:c r="B35" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:6">
-      <x:c r="B36" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:6">
-      <x:c r="B37" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C37" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:6">
-      <x:c r="B38" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:6">
-      <x:c r="B39" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:6">
-      <x:c r="B40" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6">
-      <x:c r="B41" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:6">
-      <x:c r="B42" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:6">
-      <x:c r="B43" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:6">
-      <x:c r="B44" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:6">
-      <x:c r="B45" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E45" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:6">
-      <x:c r="B46" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="s">
-        <x:v>23</x:v>
+      <x:c r="K17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="G18" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="J19" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="J20" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="J21" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/JoeyTribbiani_281092.xlsx
+++ b/JoeyTribbiani_281092.xlsx
@@ -243,7 +243,10 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -885,6 +888,7 @@
         <x:v>58</x:v>
       </x:c>
     </x:row>
+    <x:row r="22" spans="1:11"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
